--- a/hasil_scraping.xlsx
+++ b/hasil_scraping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,90 +481,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prinsip KISS dalam Pengembangan dan Desain</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Desain</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Memahami Pentingnya Struktur Data dalam Pemrograman</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Database</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Kumpulan Shortcut Figma Untuk Meningkatkan Produktivitas</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Desain</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Cara Membuat Sitemap di Blogspot</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Cara Membangun Backlink Berkualitas</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Cara Maintain Website Menggunakan WordPress</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Cara Menginstall Docker di Windows</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Docker</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/hasil_scraping.xlsx
+++ b/hasil_scraping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,21 +439,11 @@
           <t>Judul</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Topic</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>Menggali Lebih Dalam Mengenai WA GB dan Penggunaannya</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Teknologi</t>
         </is>
       </c>
     </row>
@@ -463,11 +453,6 @@
           <t>Aplikasi Point of Sales Populer</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Teknologi</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -475,11 +460,6 @@
           <t>Tutorial Mengembangkan Proyek IoT dengan Python</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hardware</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
